--- a/public/files/project-import-sample.xlsx
+++ b/public/files/project-import-sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
   <si>
     <t>Saudi Arabia</t>
   </si>
@@ -67,30 +67,198 @@
     <t>Tark Developments</t>
   </si>
   <si>
-    <t>13-C</t>
-  </si>
-  <si>
     <t>Ejaz</t>
   </si>
   <si>
     <t>Apartment</t>
   </si>
   <si>
-    <t>160.2</t>
-  </si>
-  <si>
     <t>cash bank</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>(25-26)-A</t>
+  </si>
+  <si>
+    <t>(25-26)-B</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>down_payment</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Sold out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved </t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,8 +296,26 @@
       <color rgb="FFB5B5C3"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +328,26 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -151,42 +355,241 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -412,7 +815,7 @@
     <col min="11" max="11" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -452,9 +855,15 @@
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -463,7 +872,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,36 +885,40 @@
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="18">
+        <v>178.29000000000002</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
-        <v>3</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1200000</v>
-      </c>
-      <c r="L2" s="12">
-        <v>44918</v>
-      </c>
+      <c r="J2" s="27">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21">
+        <v>1400000</v>
+      </c>
+      <c r="L2" s="12"/>
       <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="N2" s="26">
+        <v>40250</v>
+      </c>
+      <c r="O2" s="30">
+        <v>280000</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -514,23 +927,39 @@
       <c r="V2" s="11"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="19">
+        <v>183.73000000000002</v>
+      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="27">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1400000</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="26">
+        <v>40250</v>
+      </c>
+      <c r="O3" s="30">
+        <v>280000</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -539,20 +968,38 @@
       <c r="V3" s="11"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="K4" s="9"/>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="19">
+        <v>178.97</v>
+      </c>
+      <c r="J4" s="27">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1420000</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="N4" s="26">
+        <v>40825</v>
+      </c>
+      <c r="O4" s="30">
+        <v>284000</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>70</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -560,53 +1007,1138 @@
       <c r="U4" s="10"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1">
-      <c r="E5" s="4"/>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E5" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="19">
+        <v>184.95</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1420000</v>
+      </c>
+      <c r="N5" s="26">
+        <v>40825</v>
+      </c>
+      <c r="O5" s="30">
+        <v>284000</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="19">
+        <v>179.49</v>
+      </c>
+      <c r="J6" s="27">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1440000</v>
+      </c>
+      <c r="N6" s="26">
+        <v>41400</v>
+      </c>
+      <c r="O6" s="30">
+        <v>288000</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="19">
+        <v>183.97</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1440000</v>
+      </c>
+      <c r="N7" s="26">
+        <v>41400</v>
+      </c>
+      <c r="O7" s="30">
+        <v>288000</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="19">
+        <v>178.76</v>
+      </c>
+      <c r="J8" s="28">
+        <v>2</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1510000</v>
+      </c>
+      <c r="N8" s="26">
+        <v>43413</v>
+      </c>
+      <c r="O8" s="30">
+        <v>302000</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="19">
+        <v>182.79000000000002</v>
+      </c>
+      <c r="J9" s="28">
+        <v>2</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1510000</v>
+      </c>
+      <c r="N9" s="26">
+        <v>43413</v>
+      </c>
+      <c r="O9" s="30">
+        <v>302000</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="19">
+        <v>177.18</v>
+      </c>
+      <c r="J10" s="28">
+        <v>2</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1530000</v>
+      </c>
+      <c r="N10" s="26">
+        <v>43988</v>
+      </c>
+      <c r="O10" s="30">
+        <v>306000</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="19">
+        <v>184.67000000000002</v>
+      </c>
+      <c r="J11" s="28">
+        <v>2</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1530000</v>
+      </c>
+      <c r="N11" s="26">
+        <v>43988</v>
+      </c>
+      <c r="O11" s="30">
+        <v>306000</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="19">
+        <v>179.29000000000002</v>
+      </c>
+      <c r="J12" s="28">
+        <v>2</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1550000</v>
+      </c>
+      <c r="N12" s="26">
+        <v>44563</v>
+      </c>
+      <c r="O12" s="30">
+        <v>310000</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="19">
+        <v>184.9</v>
+      </c>
+      <c r="J13" s="28">
+        <v>2</v>
+      </c>
+      <c r="K13" s="22">
+        <v>1550000</v>
+      </c>
+      <c r="N13" s="26">
+        <v>44563</v>
+      </c>
+      <c r="O13" s="30">
+        <v>310000</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="19">
+        <v>177.5</v>
+      </c>
+      <c r="J14" s="28">
+        <v>2</v>
+      </c>
+      <c r="K14" s="22">
+        <v>1570000</v>
+      </c>
+      <c r="N14" s="26">
+        <v>45138</v>
+      </c>
+      <c r="O14" s="30">
+        <v>314000</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="19">
+        <v>184.67000000000002</v>
+      </c>
+      <c r="J15" s="28">
+        <v>2</v>
+      </c>
+      <c r="K15" s="22">
+        <v>1570000</v>
+      </c>
+      <c r="N15" s="26">
+        <v>45138</v>
+      </c>
+      <c r="O15" s="30">
+        <v>314000</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="19">
+        <v>179.31</v>
+      </c>
+      <c r="J16" s="28">
+        <v>2</v>
+      </c>
+      <c r="K16" s="22">
+        <v>1610000</v>
+      </c>
+      <c r="N16" s="26">
+        <v>46288</v>
+      </c>
+      <c r="O16" s="30">
+        <v>322000</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="19">
+        <v>185.69</v>
+      </c>
+      <c r="J17" s="28">
+        <v>2</v>
+      </c>
+      <c r="K17" s="22">
+        <v>1610000</v>
+      </c>
+      <c r="N17" s="26">
+        <v>46288</v>
+      </c>
+      <c r="O17" s="30">
+        <v>322000</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="19">
+        <v>179.79000000000002</v>
+      </c>
+      <c r="J18" s="28">
+        <v>2</v>
+      </c>
+      <c r="K18" s="22">
+        <v>1630000</v>
+      </c>
+      <c r="N18" s="26">
+        <v>46863</v>
+      </c>
+      <c r="O18" s="30">
+        <v>326000</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="19">
+        <v>184.5</v>
+      </c>
+      <c r="J19" s="28">
+        <v>2</v>
+      </c>
+      <c r="K19" s="22">
+        <v>1630000</v>
+      </c>
+      <c r="L19" s="33">
+        <v>44844</v>
+      </c>
+      <c r="N19" s="26">
+        <v>46863</v>
+      </c>
+      <c r="O19" s="30">
+        <v>326000</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="19">
+        <v>179.79000000000002</v>
+      </c>
+      <c r="J20" s="28">
+        <v>2</v>
+      </c>
+      <c r="K20" s="22">
+        <v>1650000</v>
+      </c>
+      <c r="N20" s="26">
+        <v>47438</v>
+      </c>
+      <c r="O20" s="30">
+        <v>330000</v>
+      </c>
+      <c r="P20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="19">
+        <v>184.32</v>
+      </c>
+      <c r="J21" s="28">
+        <v>2</v>
+      </c>
+      <c r="K21" s="22">
+        <v>1650000</v>
+      </c>
+      <c r="N21" s="26">
+        <v>47438</v>
+      </c>
+      <c r="O21" s="30">
+        <v>330000</v>
+      </c>
+      <c r="P21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="19">
+        <v>178.58</v>
+      </c>
+      <c r="J22" s="28">
+        <v>2</v>
+      </c>
+      <c r="K22" s="22">
+        <v>1670000</v>
+      </c>
+      <c r="N22" s="26">
+        <v>48013</v>
+      </c>
+      <c r="O22" s="30">
+        <v>334000</v>
+      </c>
+      <c r="P22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="19">
+        <v>183.31</v>
+      </c>
+      <c r="J23" s="28">
+        <v>2</v>
+      </c>
+      <c r="K23" s="22">
+        <v>1670000</v>
+      </c>
+      <c r="N23" s="26">
+        <v>48013</v>
+      </c>
+      <c r="O23" s="30">
+        <v>334000</v>
+      </c>
+      <c r="P23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E24" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="19">
+        <v>179.51</v>
+      </c>
+      <c r="J24" s="28">
+        <v>2</v>
+      </c>
+      <c r="K24" s="22">
+        <v>1690000</v>
+      </c>
+      <c r="N24" s="26">
+        <v>48588</v>
+      </c>
+      <c r="O24" s="30">
+        <v>338000</v>
+      </c>
+      <c r="P24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="19">
+        <v>184.47</v>
+      </c>
+      <c r="J25" s="28">
+        <v>2</v>
+      </c>
+      <c r="K25" s="23">
+        <v>1690000</v>
+      </c>
+      <c r="N25" s="26">
+        <v>48588</v>
+      </c>
+      <c r="O25" s="30">
+        <v>338000</v>
+      </c>
+      <c r="P25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="19">
+        <v>179.74</v>
+      </c>
+      <c r="J26" s="28">
+        <v>2</v>
+      </c>
+      <c r="K26" s="22">
+        <v>1710000</v>
+      </c>
+      <c r="N26" s="26">
+        <v>49163</v>
+      </c>
+      <c r="O26" s="30">
+        <v>342000</v>
+      </c>
+      <c r="P26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="19">
+        <v>181.5</v>
+      </c>
+      <c r="J27" s="28">
+        <v>2</v>
+      </c>
+      <c r="K27" s="22">
+        <v>1710000</v>
+      </c>
+      <c r="N27" s="26">
+        <v>49163</v>
+      </c>
+      <c r="O27" s="30">
+        <v>342000</v>
+      </c>
+      <c r="P27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="19">
+        <v>178.58</v>
+      </c>
+      <c r="J28" s="28">
+        <v>2</v>
+      </c>
+      <c r="K28" s="24">
+        <v>1730000</v>
+      </c>
+      <c r="N28" s="26">
+        <v>49738</v>
+      </c>
+      <c r="O28" s="30">
+        <v>346000</v>
+      </c>
+      <c r="P28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="19">
+        <v>183.31</v>
+      </c>
+      <c r="J29" s="28">
+        <v>2</v>
+      </c>
+      <c r="K29" s="22">
+        <v>1730000</v>
+      </c>
+      <c r="N29" s="26">
+        <v>49738</v>
+      </c>
+      <c r="O29" s="30">
+        <v>346000</v>
+      </c>
+      <c r="P29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="19">
+        <v>179.60000000000002</v>
+      </c>
+      <c r="J30" s="28">
+        <v>2</v>
+      </c>
+      <c r="K30" s="22">
+        <v>1750000</v>
+      </c>
+      <c r="N30" s="26">
+        <v>50313</v>
+      </c>
+      <c r="O30" s="30">
+        <v>350000</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="19">
+        <v>184.51999999999998</v>
+      </c>
+      <c r="J31" s="28">
+        <v>2</v>
+      </c>
+      <c r="K31" s="22">
+        <v>1750000</v>
+      </c>
+      <c r="L31" s="33">
+        <v>44844</v>
+      </c>
+      <c r="N31" s="26">
+        <v>50313</v>
+      </c>
+      <c r="O31" s="30">
+        <v>350000</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="19">
+        <v>180.51999999999998</v>
+      </c>
+      <c r="J32" s="28">
+        <v>2</v>
+      </c>
+      <c r="K32" s="22">
+        <v>1770000</v>
+      </c>
+      <c r="N32" s="26">
+        <v>50888</v>
+      </c>
+      <c r="O32" s="30">
+        <v>354000</v>
+      </c>
+      <c r="P32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="19">
+        <v>185.69</v>
+      </c>
+      <c r="J33" s="28">
+        <v>2</v>
+      </c>
+      <c r="K33" s="23">
+        <v>1770000</v>
+      </c>
+      <c r="N33" s="26">
+        <v>50888</v>
+      </c>
+      <c r="O33" s="30">
+        <v>354000</v>
+      </c>
+      <c r="P33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="19">
+        <v>179.32</v>
+      </c>
+      <c r="J34" s="28">
+        <v>2</v>
+      </c>
+      <c r="K34" s="22">
+        <v>1790000</v>
+      </c>
+      <c r="N34" s="26">
+        <v>51463</v>
+      </c>
+      <c r="O34" s="30">
+        <v>358000</v>
+      </c>
+      <c r="P34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="19">
+        <v>184.67000000000002</v>
+      </c>
+      <c r="J35" s="28">
+        <v>2</v>
+      </c>
+      <c r="K35" s="23">
+        <v>1790000</v>
+      </c>
+      <c r="N35" s="26">
+        <v>51463</v>
+      </c>
+      <c r="O35" s="30">
+        <v>358000</v>
+      </c>
+      <c r="P35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="19">
+        <v>177.5</v>
+      </c>
+      <c r="J36" s="28">
+        <v>2</v>
+      </c>
+      <c r="K36" s="22">
+        <v>1810000</v>
+      </c>
+      <c r="N36" s="26">
+        <v>52038</v>
+      </c>
+      <c r="O36" s="30">
+        <v>362000</v>
+      </c>
+      <c r="P36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="19">
+        <v>185.82999999999998</v>
+      </c>
+      <c r="J37" s="28">
+        <v>2</v>
+      </c>
+      <c r="K37" s="23">
+        <v>1810000</v>
+      </c>
+      <c r="N37" s="26">
+        <v>52038</v>
+      </c>
+      <c r="O37" s="30">
+        <v>362000</v>
+      </c>
+      <c r="P37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="19">
+        <v>179.29000000000002</v>
+      </c>
+      <c r="J38" s="28">
+        <v>2</v>
+      </c>
+      <c r="K38" s="22">
+        <v>1830000</v>
+      </c>
+      <c r="N38" s="26">
+        <v>52613</v>
+      </c>
+      <c r="O38" s="30">
+        <v>366000</v>
+      </c>
+      <c r="P38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E39" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="19">
+        <v>184.67000000000002</v>
+      </c>
+      <c r="J39" s="28">
+        <v>2</v>
+      </c>
+      <c r="K39" s="23">
+        <v>1830000</v>
+      </c>
+      <c r="N39" s="26">
+        <v>52613</v>
+      </c>
+      <c r="O39" s="30">
+        <v>366000</v>
+      </c>
+      <c r="P39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="19">
+        <v>175.58</v>
+      </c>
+      <c r="J40" s="28">
+        <v>2</v>
+      </c>
+      <c r="K40" s="22">
+        <v>1850000</v>
+      </c>
+      <c r="N40" s="26">
+        <v>53188</v>
+      </c>
+      <c r="O40" s="30">
+        <v>370000</v>
+      </c>
+      <c r="P40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="19">
+        <v>181.23000000000002</v>
+      </c>
+      <c r="J41" s="28">
+        <v>2</v>
+      </c>
+      <c r="K41" s="23">
+        <v>1850000</v>
+      </c>
+      <c r="N41" s="26">
+        <v>53188</v>
+      </c>
+      <c r="O41" s="30">
+        <v>370000</v>
+      </c>
+      <c r="P41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="19">
+        <v>175.62</v>
+      </c>
+      <c r="J42" s="28">
+        <v>2</v>
+      </c>
+      <c r="K42" s="22">
+        <v>1870000</v>
+      </c>
+      <c r="N42" s="26">
+        <v>53763</v>
+      </c>
+      <c r="O42" s="30">
+        <v>374000</v>
+      </c>
+      <c r="P42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E43" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="19">
+        <v>181.23000000000002</v>
+      </c>
+      <c r="J43" s="28">
+        <v>2</v>
+      </c>
+      <c r="K43" s="23">
+        <v>1870000</v>
+      </c>
+      <c r="N43" s="26">
+        <v>53763</v>
+      </c>
+      <c r="O43" s="30">
+        <v>374000</v>
+      </c>
+      <c r="P43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="19">
+        <v>175.62</v>
+      </c>
+      <c r="J44" s="28">
+        <v>2</v>
+      </c>
+      <c r="K44" s="22">
+        <v>1890000</v>
+      </c>
+      <c r="N44" s="26">
+        <v>54338</v>
+      </c>
+      <c r="O44" s="30">
+        <v>378000</v>
+      </c>
+      <c r="P44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E45" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="19">
+        <v>181.23000000000002</v>
+      </c>
+      <c r="J45" s="28">
+        <v>2</v>
+      </c>
+      <c r="K45" s="23">
+        <v>1890000</v>
+      </c>
+      <c r="N45" s="26">
+        <v>54338</v>
+      </c>
+      <c r="O45" s="30">
+        <v>378000</v>
+      </c>
+      <c r="P45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E46" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="19">
+        <v>353.84000000000003</v>
+      </c>
+      <c r="J46" s="28">
+        <v>3</v>
+      </c>
+      <c r="K46" s="22">
+        <v>3200000</v>
+      </c>
+      <c r="L46" s="33">
+        <v>44844</v>
+      </c>
+      <c r="N46" s="26">
+        <v>92000</v>
+      </c>
+      <c r="O46" s="30">
+        <v>640000</v>
+      </c>
+      <c r="P46" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E47" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="20">
+        <v>350.22</v>
+      </c>
+      <c r="J47" s="29">
+        <v>3</v>
+      </c>
+      <c r="K47" s="25">
+        <v>3200000</v>
+      </c>
+      <c r="L47" s="33">
+        <v>44844</v>
+      </c>
+      <c r="N47" s="26">
+        <v>92000</v>
+      </c>
+      <c r="O47" s="31">
+        <v>640000</v>
+      </c>
+      <c r="P47" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
